--- a/files/g2g.xlsx
+++ b/files/g2g.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="18195" windowHeight="8385"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lot1" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="641">
   <si>
     <t>C313/2559</t>
   </si>
@@ -1745,9 +1745,6 @@
     <t>eta_date</t>
   </si>
   <si>
-    <t>doc_date</t>
-  </si>
-  <si>
     <t>value_usd</t>
   </si>
   <si>
@@ -1935,6 +1932,15 @@
   </si>
   <si>
     <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>cut_of_date</t>
+  </si>
+  <si>
+    <t>confirm_lot</t>
+  </si>
+  <si>
+    <t>exporter_no</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1951,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2156,7 +2162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2626,6 +2632,11 @@
     <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2927,36 +2938,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="161" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="161" customWidth="1"/>
-    <col min="13" max="13" width="19.75" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.375" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="161" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="161" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" style="80" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="80" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="80" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="161"/>
-    <col min="19" max="19" width="10.125" style="80" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" style="132" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="132" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>559</v>
       </c>
@@ -3012,13 +3023,16 @@
         <v>574</v>
       </c>
       <c r="S1" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="T1" s="128" t="s">
         <v>575</v>
       </c>
-      <c r="T1" s="128" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U1" s="165" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="87">
         <v>1</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G2" s="65">
         <f>25*22</f>
@@ -3056,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>5</v>
@@ -3071,20 +3085,23 @@
         <v>8</v>
       </c>
       <c r="Q2" s="134" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R2" s="135" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S2" s="72" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T2" s="129">
         <f>G2*394</f>
         <v>216700</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="87">
         <v>2</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G3" s="65">
         <f>25*20</f>
@@ -3122,7 +3139,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>11</v>
@@ -3137,20 +3154,23 @@
         <v>14</v>
       </c>
       <c r="Q3" s="134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R3" s="135" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T3" s="129">
         <f t="shared" ref="T3:T66" si="1">G3*394</f>
         <v>197000</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="87">
         <v>3</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G4" s="65">
         <f>25*40</f>
@@ -3188,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>18</v>
@@ -3203,20 +3223,23 @@
         <v>20</v>
       </c>
       <c r="Q4" s="134" t="s">
+        <v>588</v>
+      </c>
+      <c r="R4" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="R4" s="135" t="s">
-        <v>590</v>
-      </c>
       <c r="S4" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T4" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="87">
         <v>4</v>
       </c>
@@ -3234,7 +3257,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G5" s="65">
         <f>25*20</f>
@@ -3254,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>24</v>
@@ -3269,20 +3292,23 @@
         <v>25</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R5" s="135" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S5" s="94" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T5" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>5</v>
       </c>
@@ -3300,7 +3326,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G6" s="65">
         <f>25*20</f>
@@ -3320,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>5</v>
@@ -3335,20 +3361,23 @@
         <v>31</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R6" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S6" s="94" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T6" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <v>6</v>
       </c>
@@ -3366,7 +3395,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G7" s="66">
         <f>25*40</f>
@@ -3386,7 +3415,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M7" s="20" t="s">
         <v>36</v>
@@ -3401,20 +3430,23 @@
         <v>8</v>
       </c>
       <c r="Q7" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R7" s="135" t="s">
+        <v>592</v>
+      </c>
+      <c r="S7" s="94" t="s">
         <v>593</v>
-      </c>
-      <c r="S7" s="94" t="s">
-        <v>594</v>
       </c>
       <c r="T7" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <v>7</v>
       </c>
@@ -3432,7 +3464,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G8" s="67">
         <f>25*5</f>
@@ -3452,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M8" s="50" t="s">
         <v>5</v>
@@ -3467,20 +3499,23 @@
         <v>20</v>
       </c>
       <c r="Q8" s="136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R8" s="137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S8" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T8" s="129">
         <f t="shared" si="1"/>
         <v>49250</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <v>7</v>
       </c>
@@ -3498,7 +3533,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G9" s="67">
         <f>25*27</f>
@@ -3518,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M9" s="50" t="s">
         <v>5</v>
@@ -3533,20 +3568,23 @@
         <v>20</v>
       </c>
       <c r="Q9" s="136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R9" s="137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S9" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T9" s="129">
         <f t="shared" si="1"/>
         <v>265950</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>8</v>
       </c>
@@ -3564,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G10" s="65">
         <f>25*19</f>
@@ -3584,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M10" s="20" t="s">
         <v>36</v>
@@ -3599,20 +3637,23 @@
         <v>31</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R10" s="135" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S10" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T10" s="129">
         <f t="shared" si="1"/>
         <v>187150</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <v>9</v>
       </c>
@@ -3630,7 +3671,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G11" s="67">
         <f>25*10</f>
@@ -3650,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M11" s="50" t="s">
         <v>5</v>
@@ -3665,20 +3706,23 @@
         <v>20</v>
       </c>
       <c r="Q11" s="136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R11" s="137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S11" s="73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T11" s="129">
         <f t="shared" si="1"/>
         <v>98500</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <v>9</v>
       </c>
@@ -3696,7 +3740,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G12" s="67">
         <f>25*8</f>
@@ -3716,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M12" s="50" t="s">
         <v>5</v>
@@ -3731,20 +3775,23 @@
         <v>20</v>
       </c>
       <c r="Q12" s="136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R12" s="137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S12" s="73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T12" s="129">
         <f t="shared" si="1"/>
         <v>78800</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="96">
         <v>9</v>
       </c>
@@ -3762,7 +3809,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G13" s="67">
         <f>25*7</f>
@@ -3782,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="162" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M13" s="50" t="s">
         <v>5</v>
@@ -3797,20 +3844,23 @@
         <v>20</v>
       </c>
       <c r="Q13" s="136" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R13" s="137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S13" s="73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T13" s="129">
         <f t="shared" si="1"/>
         <v>68950</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>10</v>
       </c>
@@ -3828,7 +3878,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G14" s="65">
         <f>25*40</f>
@@ -3848,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M14" s="20" t="s">
         <v>53</v>
@@ -3863,20 +3913,23 @@
         <v>8</v>
       </c>
       <c r="Q14" s="134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R14" s="135" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S14" s="72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T14" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="87">
         <v>11</v>
       </c>
@@ -3894,7 +3947,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G15" s="65">
         <f>25*21</f>
@@ -3914,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M15" s="20" t="s">
         <v>36</v>
@@ -3929,20 +3982,23 @@
         <v>31</v>
       </c>
       <c r="Q15" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R15" s="135" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S15" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T15" s="129">
         <f t="shared" si="1"/>
         <v>206850</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="87">
         <v>12</v>
       </c>
@@ -3960,7 +4016,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G16" s="65">
         <f>25*20</f>
@@ -3980,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M16" s="20" t="s">
         <v>36</v>
@@ -3995,20 +4051,23 @@
         <v>62</v>
       </c>
       <c r="Q16" s="134" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R16" s="135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T16" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>13</v>
       </c>
@@ -4026,7 +4085,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G17" s="65">
         <f>25*20</f>
@@ -4046,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M17" s="20" t="s">
         <v>65</v>
@@ -4061,20 +4120,23 @@
         <v>67</v>
       </c>
       <c r="Q17" s="134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R17" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S17" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T17" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>14</v>
       </c>
@@ -4092,7 +4154,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G18" s="65">
         <f>25*28</f>
@@ -4112,7 +4174,7 @@
         <v>4</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>71</v>
@@ -4127,20 +4189,23 @@
         <v>73</v>
       </c>
       <c r="Q18" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R18" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S18" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T18" s="129">
         <f t="shared" si="1"/>
         <v>275800</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="87">
         <v>15</v>
       </c>
@@ -4158,7 +4223,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G19" s="65">
         <f>25*20</f>
@@ -4178,7 +4243,7 @@
         <v>4</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>71</v>
@@ -4193,20 +4258,23 @@
         <v>77</v>
       </c>
       <c r="Q19" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R19" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S19" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T19" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="87">
         <v>16</v>
       </c>
@@ -4224,7 +4292,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G20" s="65">
         <f>25*20</f>
@@ -4244,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>71</v>
@@ -4259,20 +4327,23 @@
         <v>81</v>
       </c>
       <c r="Q20" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R20" s="135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S20" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T20" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
         <v>17</v>
       </c>
@@ -4290,7 +4361,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G21" s="65">
         <f>25*23</f>
@@ -4310,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>5</v>
@@ -4325,20 +4396,23 @@
         <v>20</v>
       </c>
       <c r="Q21" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R21" s="135" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S21" s="72" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T21" s="129">
         <f t="shared" si="1"/>
         <v>226550</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="100">
         <v>18</v>
       </c>
@@ -4356,7 +4430,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G22" s="67">
         <f>25*46</f>
@@ -4376,7 +4450,7 @@
         <v>4</v>
       </c>
       <c r="L22" s="163" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>36</v>
@@ -4391,20 +4465,23 @@
         <v>31</v>
       </c>
       <c r="Q22" s="138" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R22" s="139" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S22" s="74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T22" s="129">
         <f t="shared" si="1"/>
         <v>453100</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>19</v>
       </c>
@@ -4422,7 +4499,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G23" s="65">
         <f>25*40</f>
@@ -4442,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>71</v>
@@ -4457,20 +4534,23 @@
         <v>77</v>
       </c>
       <c r="Q23" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R23" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S23" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T23" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -4488,7 +4568,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G24" s="65">
         <f>25*20</f>
@@ -4508,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M24" s="20" t="s">
         <v>71</v>
@@ -4523,20 +4603,23 @@
         <v>96</v>
       </c>
       <c r="Q24" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R24" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S24" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T24" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>21</v>
       </c>
@@ -4554,7 +4637,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G25" s="65">
         <f>25*20</f>
@@ -4574,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M25" s="20" t="s">
         <v>71</v>
@@ -4589,20 +4672,23 @@
         <v>101</v>
       </c>
       <c r="Q25" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R25" s="135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S25" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T25" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>22</v>
       </c>
@@ -4620,7 +4706,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G26" s="66">
         <f>25*21</f>
@@ -4640,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M26" s="20" t="s">
         <v>71</v>
@@ -4655,20 +4741,23 @@
         <v>73</v>
       </c>
       <c r="Q26" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R26" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S26" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T26" s="129">
         <f t="shared" si="1"/>
         <v>206850</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>23</v>
       </c>
@@ -4686,7 +4775,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G27" s="66">
         <f>25*20</f>
@@ -4706,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>11</v>
@@ -4721,20 +4810,23 @@
         <v>110</v>
       </c>
       <c r="Q27" s="134" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R27" s="135" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S27" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T27" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>24</v>
       </c>
@@ -4752,7 +4844,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G28" s="66">
         <f>25*40</f>
@@ -4772,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M28" s="20" t="s">
         <v>115</v>
@@ -4787,20 +4879,23 @@
         <v>8</v>
       </c>
       <c r="Q28" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R28" s="135" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S28" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T28" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="87">
         <v>25</v>
       </c>
@@ -4818,7 +4913,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G29" s="66">
         <f>25*40</f>
@@ -4838,7 +4933,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M29" s="20" t="s">
         <v>120</v>
@@ -4853,20 +4948,23 @@
         <v>20</v>
       </c>
       <c r="Q29" s="134" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R29" s="135" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S29" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T29" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="87">
         <v>26</v>
       </c>
@@ -4884,7 +4982,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G30" s="66">
         <f>25*36</f>
@@ -4904,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M30" s="103" t="s">
         <v>36</v>
@@ -4919,20 +5017,23 @@
         <v>8</v>
       </c>
       <c r="Q30" s="134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R30" s="135" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S30" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T30" s="129">
         <f t="shared" si="1"/>
         <v>354600</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="87">
         <v>27</v>
       </c>
@@ -4950,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G31" s="65">
         <f>25*20</f>
@@ -4970,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M31" s="20" t="s">
         <v>11</v>
@@ -4985,20 +5086,23 @@
         <v>67</v>
       </c>
       <c r="Q31" s="134" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R31" s="135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S31" s="72" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T31" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="87">
         <v>28</v>
       </c>
@@ -5016,7 +5120,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G32" s="66">
         <f>25*20</f>
@@ -5036,7 +5140,7 @@
         <v>4</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M32" s="20" t="s">
         <v>131</v>
@@ -5051,20 +5155,23 @@
         <v>20</v>
       </c>
       <c r="Q32" s="134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R32" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S32" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T32" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="87">
         <v>29</v>
       </c>
@@ -5082,7 +5189,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G33" s="66">
         <f>25*33</f>
@@ -5102,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M33" s="20" t="s">
         <v>36</v>
@@ -5117,20 +5224,23 @@
         <v>73</v>
       </c>
       <c r="Q33" s="134" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R33" s="140" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S33" s="72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T33" s="129">
         <f t="shared" si="1"/>
         <v>325050</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="106">
         <v>30</v>
       </c>
@@ -5148,7 +5258,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G34" s="68">
         <f>25*20</f>
@@ -5168,7 +5278,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="164" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M34" s="111" t="s">
         <v>11</v>
@@ -5183,20 +5293,23 @@
         <v>110</v>
       </c>
       <c r="Q34" s="141" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R34" s="142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S34" s="75" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T34" s="130">
         <f>G34*399</f>
         <v>199500</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="87">
         <v>31</v>
       </c>
@@ -5214,7 +5327,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G35" s="66">
         <f>25*39</f>
@@ -5234,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M35" s="20" t="s">
         <v>36</v>
@@ -5249,20 +5362,23 @@
         <v>67</v>
       </c>
       <c r="Q35" s="140" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R35" s="140" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S35" s="72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T35" s="129">
         <f t="shared" si="1"/>
         <v>384150</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="87">
         <v>32</v>
       </c>
@@ -5280,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G36" s="66">
         <f>25*20</f>
@@ -5300,7 +5416,7 @@
         <v>4</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M36" s="20" t="s">
         <v>11</v>
@@ -5315,20 +5431,23 @@
         <v>110</v>
       </c>
       <c r="Q36" s="140" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R36" s="135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S36" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T36" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="87">
         <v>33</v>
       </c>
@@ -5346,7 +5465,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G37" s="66">
         <f>25*40</f>
@@ -5366,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="L37" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M37" s="20" t="s">
         <v>36</v>
@@ -5381,20 +5500,23 @@
         <v>20</v>
       </c>
       <c r="Q37" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R37" s="135" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S37" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T37" s="129">
         <f t="shared" si="1"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="87">
         <v>34</v>
       </c>
@@ -5412,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G38" s="66">
         <f>25*26</f>
@@ -5432,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M38" s="20" t="s">
         <v>36</v>
@@ -5447,20 +5569,23 @@
         <v>20</v>
       </c>
       <c r="Q38" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R38" s="135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S38" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T38" s="129">
         <f t="shared" si="1"/>
         <v>256100</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="87">
         <v>35</v>
       </c>
@@ -5478,7 +5603,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G39" s="66">
         <f>25*23</f>
@@ -5498,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M39" s="20" t="s">
         <v>36</v>
@@ -5513,20 +5638,23 @@
         <v>20</v>
       </c>
       <c r="Q39" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R39" s="135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S39" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T39" s="129">
         <f t="shared" si="1"/>
         <v>226550</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="106">
         <v>36</v>
       </c>
@@ -5544,7 +5672,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G40" s="68">
         <f>25*20</f>
@@ -5564,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="L40" s="164" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M40" s="111" t="s">
         <v>18</v>
@@ -5579,20 +5707,23 @@
         <v>8</v>
       </c>
       <c r="Q40" s="141" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R40" s="142" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S40" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T40" s="130">
         <f>G40*399</f>
         <v>199500</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="87">
         <v>37</v>
       </c>
@@ -5610,7 +5741,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G41" s="66">
         <f>25*25</f>
@@ -5630,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M41" s="20" t="s">
         <v>36</v>
@@ -5645,20 +5776,23 @@
         <v>20</v>
       </c>
       <c r="Q41" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R41" s="135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S41" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T41" s="129">
         <f t="shared" si="1"/>
         <v>246250</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>38</v>
       </c>
@@ -5676,7 +5810,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G42" s="67">
         <f>25*20</f>
@@ -5696,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M42" s="20" t="s">
         <v>71</v>
@@ -5711,20 +5845,23 @@
         <v>81</v>
       </c>
       <c r="Q42" s="143" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R42" s="144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S42" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T42" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="87">
         <v>39</v>
       </c>
@@ -5742,7 +5879,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G43" s="66">
         <f>25*38</f>
@@ -5762,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M43" s="20" t="s">
         <v>36</v>
@@ -5777,20 +5914,23 @@
         <v>20</v>
       </c>
       <c r="Q43" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R43" s="135" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S43" s="72" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T43" s="129">
         <f t="shared" si="1"/>
         <v>374300</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="87">
         <v>40</v>
       </c>
@@ -5808,7 +5948,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G44" s="66">
         <f>25*20</f>
@@ -5828,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M44" s="20" t="s">
         <v>24</v>
@@ -5843,20 +5983,23 @@
         <v>14</v>
       </c>
       <c r="Q44" s="134" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R44" s="135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S44" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T44" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="87">
         <v>41</v>
       </c>
@@ -5874,7 +6017,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G45" s="66">
         <f>25*26</f>
@@ -5894,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M45" s="20" t="s">
         <v>36</v>
@@ -5909,20 +6052,23 @@
         <v>20</v>
       </c>
       <c r="Q45" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R45" s="135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S45" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T45" s="129">
         <f t="shared" si="1"/>
         <v>256100</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="87">
         <v>42</v>
       </c>
@@ -5940,7 +6086,7 @@
         <v>50</v>
       </c>
       <c r="F46" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G46" s="65">
         <f>25*35</f>
@@ -5960,7 +6106,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M46" s="20" t="s">
         <v>5</v>
@@ -5975,20 +6121,23 @@
         <v>8</v>
       </c>
       <c r="Q46" s="140" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R46" s="140" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S46" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T46" s="129">
         <f t="shared" si="1"/>
         <v>344750</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
         <v>43</v>
       </c>
@@ -6006,7 +6155,7 @@
         <v>50</v>
       </c>
       <c r="F47" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G47" s="65">
         <f>25*20</f>
@@ -6026,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M47" s="20" t="s">
         <v>187</v>
@@ -6041,20 +6190,23 @@
         <v>8</v>
       </c>
       <c r="Q47" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R47" s="135" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S47" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T47" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="87">
         <v>44</v>
       </c>
@@ -6072,7 +6224,7 @@
         <v>50</v>
       </c>
       <c r="F48" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G48" s="65">
         <f>25*37</f>
@@ -6092,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M48" s="20" t="s">
         <v>36</v>
@@ -6107,20 +6259,23 @@
         <v>31</v>
       </c>
       <c r="Q48" s="134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R48" s="135" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S48" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T48" s="129">
         <f t="shared" si="1"/>
         <v>364450</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="112">
         <v>45</v>
       </c>
@@ -6138,7 +6293,7 @@
         <v>50</v>
       </c>
       <c r="F49" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G49" s="65">
         <f>25*39</f>
@@ -6158,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M49" s="39" t="s">
         <v>71</v>
@@ -6173,20 +6328,23 @@
         <v>196</v>
       </c>
       <c r="Q49" s="138" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R49" s="139" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S49" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T49" s="129">
         <f t="shared" si="1"/>
         <v>384150</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>46</v>
       </c>
@@ -6204,7 +6362,7 @@
         <v>50</v>
       </c>
       <c r="F50" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G50" s="67">
         <f>25*31</f>
@@ -6224,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="L50" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M50" s="54" t="s">
         <v>36</v>
@@ -6239,20 +6397,23 @@
         <v>20</v>
       </c>
       <c r="Q50" s="136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R50" s="137" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S50" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T50" s="129">
         <f t="shared" si="1"/>
         <v>305350</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>46</v>
       </c>
@@ -6270,7 +6431,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G51" s="67">
         <f>25*2</f>
@@ -6290,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="L51" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M51" s="54" t="s">
         <v>36</v>
@@ -6305,20 +6466,23 @@
         <v>20</v>
       </c>
       <c r="Q51" s="136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R51" s="137" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S51" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T51" s="129">
         <f t="shared" si="1"/>
         <v>19700</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>46</v>
       </c>
@@ -6336,7 +6500,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G52" s="67">
         <f>25*2</f>
@@ -6356,7 +6520,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M52" s="54" t="s">
         <v>36</v>
@@ -6371,20 +6535,23 @@
         <v>20</v>
       </c>
       <c r="Q52" s="136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R52" s="137" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S52" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T52" s="129">
         <f t="shared" si="1"/>
         <v>19700</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>47</v>
       </c>
@@ -6402,7 +6569,7 @@
         <v>50</v>
       </c>
       <c r="F53" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G53" s="67">
         <f>25*20</f>
@@ -6422,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M53" s="20" t="s">
         <v>65</v>
@@ -6437,20 +6604,23 @@
         <v>67</v>
       </c>
       <c r="Q53" s="143" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R53" s="144" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S53" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T53" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>48</v>
       </c>
@@ -6468,7 +6638,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G54" s="67">
         <f>25*22</f>
@@ -6488,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M54" s="20" t="s">
         <v>36</v>
@@ -6503,20 +6673,23 @@
         <v>8</v>
       </c>
       <c r="Q54" s="143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R54" s="144" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S54" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T54" s="129">
         <f t="shared" si="1"/>
         <v>216700</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>49</v>
       </c>
@@ -6534,7 +6707,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G55" s="67">
         <f>25*20</f>
@@ -6554,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M55" s="20" t="s">
         <v>24</v>
@@ -6569,20 +6742,23 @@
         <v>25</v>
       </c>
       <c r="Q55" s="143" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R55" s="144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S55" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T55" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>50</v>
       </c>
@@ -6600,7 +6776,7 @@
         <v>50</v>
       </c>
       <c r="F56" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G56" s="67">
         <f>25*16</f>
@@ -6620,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M56" s="54" t="s">
         <v>36</v>
@@ -6635,20 +6811,23 @@
         <v>8</v>
       </c>
       <c r="Q56" s="145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R56" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S56" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T56" s="129">
         <f t="shared" si="1"/>
         <v>157600</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>50</v>
       </c>
@@ -6666,7 +6845,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G57" s="67">
         <f>25*2</f>
@@ -6686,7 +6865,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M57" s="54" t="s">
         <v>36</v>
@@ -6701,20 +6880,23 @@
         <v>8</v>
       </c>
       <c r="Q57" s="145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R57" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S57" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T57" s="129">
         <f t="shared" si="1"/>
         <v>19700</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>50</v>
       </c>
@@ -6732,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="F58" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G58" s="67">
         <f>25*4</f>
@@ -6752,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="162" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M58" s="54" t="s">
         <v>36</v>
@@ -6767,20 +6949,23 @@
         <v>8</v>
       </c>
       <c r="Q58" s="145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R58" s="137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S58" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T58" s="129">
         <f t="shared" si="1"/>
         <v>39400</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>51</v>
       </c>
@@ -6798,7 +6983,7 @@
         <v>50</v>
       </c>
       <c r="F59" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G59" s="65">
         <f>25*22</f>
@@ -6818,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M59" s="20" t="s">
         <v>5</v>
@@ -6833,20 +7018,23 @@
         <v>20</v>
       </c>
       <c r="Q59" s="143" t="s">
+        <v>595</v>
+      </c>
+      <c r="R59" s="144" t="s">
         <v>596</v>
       </c>
-      <c r="R59" s="144" t="s">
-        <v>597</v>
-      </c>
       <c r="S59" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T59" s="129">
         <f t="shared" si="1"/>
         <v>216700</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="87">
         <v>52</v>
       </c>
@@ -6864,7 +7052,7 @@
         <v>50</v>
       </c>
       <c r="F60" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G60" s="65">
         <f>25*20</f>
@@ -6884,7 +7072,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M60" s="20" t="s">
         <v>5</v>
@@ -6899,20 +7087,23 @@
         <v>20</v>
       </c>
       <c r="Q60" s="134" t="s">
+        <v>595</v>
+      </c>
+      <c r="R60" s="135" t="s">
         <v>596</v>
       </c>
-      <c r="R60" s="135" t="s">
-        <v>597</v>
-      </c>
       <c r="S60" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T60" s="129">
         <f t="shared" si="1"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="87">
         <v>53</v>
       </c>
@@ -6930,7 +7121,7 @@
         <v>50</v>
       </c>
       <c r="F61" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G61" s="66">
         <f>25*21</f>
@@ -6950,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M61" s="20" t="s">
         <v>36</v>
@@ -6965,20 +7156,23 @@
         <v>62</v>
       </c>
       <c r="Q61" s="134" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R61" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S61" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T61" s="129">
         <f t="shared" si="1"/>
         <v>206850</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="87">
         <v>54</v>
       </c>
@@ -6996,7 +7190,7 @@
         <v>50</v>
       </c>
       <c r="F62" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G62" s="65">
         <f>25*36</f>
@@ -7016,7 +7210,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M62" s="20" t="s">
         <v>5</v>
@@ -7031,20 +7225,23 @@
         <v>20</v>
       </c>
       <c r="Q62" s="134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R62" s="135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S62" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T62" s="129">
         <f t="shared" si="1"/>
         <v>354600</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="106">
         <v>55</v>
       </c>
@@ -7062,7 +7259,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G63" s="68">
         <f>25*20</f>
@@ -7082,7 +7279,7 @@
         <v>4</v>
       </c>
       <c r="L63" s="164" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M63" s="111" t="s">
         <v>5</v>
@@ -7097,20 +7294,23 @@
         <v>20</v>
       </c>
       <c r="Q63" s="141" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R63" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="S63" s="75" t="s">
         <v>597</v>
-      </c>
-      <c r="S63" s="75" t="s">
-        <v>598</v>
       </c>
       <c r="T63" s="130">
         <f>G63*399</f>
         <v>199500</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="87">
         <v>56</v>
       </c>
@@ -7128,7 +7328,7 @@
         <v>50</v>
       </c>
       <c r="F64" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G64" s="65">
         <f>25*39</f>
@@ -7148,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M64" s="20" t="s">
         <v>5</v>
@@ -7163,20 +7363,23 @@
         <v>8</v>
       </c>
       <c r="Q64" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R64" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S64" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T64" s="129">
         <f t="shared" si="1"/>
         <v>384150</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="106">
         <v>57</v>
       </c>
@@ -7194,7 +7397,7 @@
         <v>25</v>
       </c>
       <c r="F65" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G65" s="68">
         <f>25*40</f>
@@ -7214,7 +7417,7 @@
         <v>4</v>
       </c>
       <c r="L65" s="164" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M65" s="111" t="s">
         <v>71</v>
@@ -7229,20 +7432,23 @@
         <v>96</v>
       </c>
       <c r="Q65" s="141" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R65" s="142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S65" s="75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T65" s="130">
         <f>G65*399</f>
         <v>399000</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="87">
         <v>58</v>
       </c>
@@ -7260,7 +7466,7 @@
         <v>50</v>
       </c>
       <c r="F66" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G66" s="66">
         <f>25*36</f>
@@ -7280,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M66" s="20" t="s">
         <v>36</v>
@@ -7295,20 +7501,23 @@
         <v>8</v>
       </c>
       <c r="Q66" s="140" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R66" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S66" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T66" s="129">
         <f t="shared" si="1"/>
         <v>354600</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="106">
         <v>59</v>
       </c>
@@ -7326,7 +7535,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G67" s="68">
         <f>25*40</f>
@@ -7346,7 +7555,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="164" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M67" s="111" t="s">
         <v>11</v>
@@ -7361,20 +7570,23 @@
         <v>67</v>
       </c>
       <c r="Q67" s="141" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R67" s="142" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S67" s="75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T67" s="130">
         <f>G67*399</f>
         <v>399000</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="87">
         <v>60</v>
       </c>
@@ -7392,7 +7604,7 @@
         <v>50</v>
       </c>
       <c r="F68" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G68" s="65">
         <f>25*24</f>
@@ -7412,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M68" s="20" t="s">
         <v>36</v>
@@ -7427,20 +7639,23 @@
         <v>8</v>
       </c>
       <c r="Q68" s="140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R68" s="135" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S68" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T68" s="129">
         <f t="shared" ref="T68:T131" si="3">G68*394</f>
         <v>236400</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>61</v>
       </c>
@@ -7458,7 +7673,7 @@
         <v>50</v>
       </c>
       <c r="F69" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G69" s="67">
         <f>25*5</f>
@@ -7478,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M69" s="54" t="s">
         <v>36</v>
@@ -7493,20 +7708,23 @@
         <v>8</v>
       </c>
       <c r="Q69" s="146" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R69" s="147" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S69" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T69" s="129">
         <f t="shared" si="3"/>
         <v>49250</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>61</v>
       </c>
@@ -7524,7 +7742,7 @@
         <v>50</v>
       </c>
       <c r="F70" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G70" s="67">
         <f>25*6</f>
@@ -7544,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M70" s="54" t="s">
         <v>36</v>
@@ -7559,20 +7777,23 @@
         <v>8</v>
       </c>
       <c r="Q70" s="146" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R70" s="147" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S70" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T70" s="129">
         <f t="shared" si="3"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>61</v>
       </c>
@@ -7590,7 +7811,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G71" s="67">
         <f>25*5</f>
@@ -7610,7 +7831,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M71" s="54" t="s">
         <v>36</v>
@@ -7625,20 +7846,23 @@
         <v>8</v>
       </c>
       <c r="Q71" s="146" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R71" s="147" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S71" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T71" s="129">
         <f t="shared" si="3"/>
         <v>49250</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>61</v>
       </c>
@@ -7656,7 +7880,7 @@
         <v>50</v>
       </c>
       <c r="F72" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G72" s="67">
         <f>25*4</f>
@@ -7676,7 +7900,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M72" s="54" t="s">
         <v>36</v>
@@ -7691,20 +7915,23 @@
         <v>8</v>
       </c>
       <c r="Q72" s="146" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R72" s="147" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S72" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T72" s="129">
         <f t="shared" si="3"/>
         <v>39400</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>62</v>
       </c>
@@ -7722,7 +7949,7 @@
         <v>50</v>
       </c>
       <c r="F73" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G73" s="69">
         <f>25*26</f>
@@ -7742,7 +7969,7 @@
         <v>4</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M73" s="20" t="s">
         <v>5</v>
@@ -7757,20 +7984,23 @@
         <v>8</v>
       </c>
       <c r="Q73" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R73" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S73" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T73" s="129">
         <f t="shared" si="3"/>
         <v>256100</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>63</v>
       </c>
@@ -7788,7 +8018,7 @@
         <v>50</v>
       </c>
       <c r="F74" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G74" s="69">
         <f>25*38</f>
@@ -7808,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M74" s="33" t="s">
         <v>5</v>
@@ -7823,20 +8053,23 @@
         <v>8</v>
       </c>
       <c r="Q74" s="148" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R74" s="149" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S74" s="76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T74" s="129">
         <f t="shared" si="3"/>
         <v>374300</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>64</v>
       </c>
@@ -7854,7 +8087,7 @@
         <v>50</v>
       </c>
       <c r="F75" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G75" s="69">
         <f>25*40</f>
@@ -7874,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M75" s="33" t="s">
         <v>71</v>
@@ -7889,20 +8122,23 @@
         <v>101</v>
       </c>
       <c r="Q75" s="148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R75" s="149" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S75" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T75" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="100">
         <v>65</v>
       </c>
@@ -7920,7 +8156,7 @@
         <v>50</v>
       </c>
       <c r="F76" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G76" s="69">
         <f>25*25</f>
@@ -7940,7 +8176,7 @@
         <v>4</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M76" s="33" t="s">
         <v>71</v>
@@ -7955,20 +8191,23 @@
         <v>101</v>
       </c>
       <c r="Q76" s="150" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R76" s="151" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S76" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T76" s="129">
         <f t="shared" si="3"/>
         <v>246250</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="100">
         <v>66</v>
       </c>
@@ -7986,7 +8225,7 @@
         <v>50</v>
       </c>
       <c r="F77" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G77" s="70">
         <f>25*47</f>
@@ -8006,7 +8245,7 @@
         <v>4</v>
       </c>
       <c r="L77" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M77" s="33" t="s">
         <v>36</v>
@@ -8021,20 +8260,23 @@
         <v>20</v>
       </c>
       <c r="Q77" s="148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R77" s="149" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S77" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T77" s="129">
         <f t="shared" si="3"/>
         <v>462950</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="100">
         <v>67</v>
       </c>
@@ -8052,7 +8294,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G78" s="65">
         <f>25*36</f>
@@ -8072,7 +8314,7 @@
         <v>4</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M78" s="20" t="s">
         <v>71</v>
@@ -8087,20 +8329,23 @@
         <v>96</v>
       </c>
       <c r="Q78" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R78" s="135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S78" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T78" s="129">
         <f t="shared" si="3"/>
         <v>354600</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="100">
         <v>68</v>
       </c>
@@ -8118,7 +8363,7 @@
         <v>50</v>
       </c>
       <c r="F79" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G79" s="66">
         <f>25*37</f>
@@ -8138,7 +8383,7 @@
         <v>4</v>
       </c>
       <c r="L79" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M79" s="20" t="s">
         <v>71</v>
@@ -8153,20 +8398,23 @@
         <v>73</v>
       </c>
       <c r="Q79" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R79" s="135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S79" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T79" s="129">
         <f t="shared" si="3"/>
         <v>364450</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="96">
         <v>69</v>
       </c>
@@ -8184,7 +8432,7 @@
         <v>50</v>
       </c>
       <c r="F80" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G80" s="66">
         <f>25*29</f>
@@ -8204,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="L80" s="55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M80" s="54" t="s">
         <v>71</v>
@@ -8219,20 +8467,23 @@
         <v>101</v>
       </c>
       <c r="Q80" s="146" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R80" s="147" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S80" s="77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T80" s="129">
         <f t="shared" si="3"/>
         <v>285650</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="96">
         <v>69</v>
       </c>
@@ -8250,7 +8501,7 @@
         <v>50</v>
       </c>
       <c r="F81" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G81" s="66">
         <f>25*6</f>
@@ -8270,7 +8521,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M81" s="54" t="s">
         <v>71</v>
@@ -8285,20 +8536,23 @@
         <v>101</v>
       </c>
       <c r="Q81" s="146" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R81" s="147" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S81" s="77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T81" s="129">
         <f t="shared" si="3"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="100">
         <v>70</v>
       </c>
@@ -8316,7 +8570,7 @@
         <v>50</v>
       </c>
       <c r="F82" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G82" s="66">
         <f>25*40</f>
@@ -8336,7 +8590,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M82" s="20" t="s">
         <v>120</v>
@@ -8351,20 +8605,23 @@
         <v>20</v>
       </c>
       <c r="Q82" s="134" t="s">
+        <v>598</v>
+      </c>
+      <c r="R82" s="135" t="s">
+        <v>600</v>
+      </c>
+      <c r="S82" s="76" t="s">
         <v>599</v>
-      </c>
-      <c r="R82" s="135" t="s">
-        <v>601</v>
-      </c>
-      <c r="S82" s="76" t="s">
-        <v>600</v>
       </c>
       <c r="T82" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="100">
         <v>71</v>
       </c>
@@ -8382,7 +8639,7 @@
         <v>50</v>
       </c>
       <c r="F83" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G83" s="66">
         <f>25*40</f>
@@ -8402,7 +8659,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M83" s="20" t="s">
         <v>71</v>
@@ -8417,20 +8674,23 @@
         <v>77</v>
       </c>
       <c r="Q83" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R83" s="135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S83" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T83" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="100">
         <v>72</v>
       </c>
@@ -8448,7 +8708,7 @@
         <v>50</v>
       </c>
       <c r="F84" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G84" s="66">
         <f>25*23</f>
@@ -8468,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M84" s="20" t="s">
         <v>71</v>
@@ -8483,20 +8743,23 @@
         <v>73</v>
       </c>
       <c r="Q84" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R84" s="135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S84" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T84" s="129">
         <f t="shared" si="3"/>
         <v>226550</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="100">
         <v>73</v>
       </c>
@@ -8514,7 +8777,7 @@
         <v>50</v>
       </c>
       <c r="F85" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G85" s="65">
         <f>25*20</f>
@@ -8534,7 +8797,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M85" s="20" t="s">
         <v>187</v>
@@ -8549,20 +8812,23 @@
         <v>8</v>
       </c>
       <c r="Q85" s="134" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R85" s="135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S85" s="74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T85" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="96">
         <v>74</v>
       </c>
@@ -8580,7 +8846,7 @@
         <v>50</v>
       </c>
       <c r="F86" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G86" s="67">
         <f>25*13</f>
@@ -8600,7 +8866,7 @@
         <v>4</v>
       </c>
       <c r="L86" s="162" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M86" s="54" t="s">
         <v>36</v>
@@ -8615,20 +8881,23 @@
         <v>31</v>
       </c>
       <c r="Q86" s="136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R86" s="137" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S86" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T86" s="129">
         <f t="shared" si="3"/>
         <v>128050</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="96">
         <v>74</v>
       </c>
@@ -8646,7 +8915,7 @@
         <v>50</v>
       </c>
       <c r="F87" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G87" s="67">
         <f>25*6</f>
@@ -8666,7 +8935,7 @@
         <v>4</v>
       </c>
       <c r="L87" s="162" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M87" s="54" t="s">
         <v>36</v>
@@ -8681,20 +8950,23 @@
         <v>31</v>
       </c>
       <c r="Q87" s="136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R87" s="137" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S87" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T87" s="129">
         <f t="shared" si="3"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="100">
         <v>75</v>
       </c>
@@ -8712,7 +8984,7 @@
         <v>50</v>
       </c>
       <c r="F88" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G88" s="66">
         <f>25*20</f>
@@ -8732,7 +9004,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M88" s="20" t="s">
         <v>5</v>
@@ -8747,20 +9019,23 @@
         <v>31</v>
       </c>
       <c r="Q88" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R88" s="135" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S88" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T88" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="100">
         <v>76</v>
       </c>
@@ -8778,7 +9053,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G89" s="66">
         <f>25*40</f>
@@ -8798,7 +9073,7 @@
         <v>4</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M89" s="20" t="s">
         <v>71</v>
@@ -8813,20 +9088,23 @@
         <v>96</v>
       </c>
       <c r="Q89" s="152" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R89" s="152" t="s">
+        <v>619</v>
+      </c>
+      <c r="S89" s="76" t="s">
         <v>620</v>
-      </c>
-      <c r="S89" s="76" t="s">
-        <v>621</v>
       </c>
       <c r="T89" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="100">
         <v>77</v>
       </c>
@@ -8844,7 +9122,7 @@
         <v>50</v>
       </c>
       <c r="F90" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G90" s="66">
         <f>25*20</f>
@@ -8864,7 +9142,7 @@
         <v>4</v>
       </c>
       <c r="L90" s="21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M90" s="20" t="s">
         <v>71</v>
@@ -8879,20 +9157,23 @@
         <v>81</v>
       </c>
       <c r="Q90" s="134" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R90" s="135" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S90" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T90" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="100">
         <v>78</v>
       </c>
@@ -8910,7 +9191,7 @@
         <v>50</v>
       </c>
       <c r="F91" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G91" s="66">
         <f>25*34</f>
@@ -8930,7 +9211,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M91" s="20" t="s">
         <v>36</v>
@@ -8945,20 +9226,23 @@
         <v>31</v>
       </c>
       <c r="Q91" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R91" s="135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S91" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T91" s="129">
         <f t="shared" si="3"/>
         <v>334900</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="106">
         <v>79</v>
       </c>
@@ -8976,7 +9260,7 @@
         <v>25</v>
       </c>
       <c r="F92" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G92" s="68">
         <f>25*40</f>
@@ -8996,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="164" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M92" s="111" t="s">
         <v>53</v>
@@ -9011,20 +9295,23 @@
         <v>8</v>
       </c>
       <c r="Q92" s="141" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R92" s="142" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S92" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T92" s="130">
         <f>G92*399</f>
         <v>399000</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="100">
         <v>80</v>
       </c>
@@ -9042,7 +9329,7 @@
         <v>50</v>
       </c>
       <c r="F93" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G93" s="66">
         <f>25*30</f>
@@ -9062,7 +9349,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M93" s="20" t="s">
         <v>5</v>
@@ -9077,20 +9364,23 @@
         <v>8</v>
       </c>
       <c r="Q93" s="134" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R93" s="135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S93" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T93" s="129">
         <f t="shared" si="3"/>
         <v>295500</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="106">
         <v>81</v>
       </c>
@@ -9108,7 +9398,7 @@
         <v>25</v>
       </c>
       <c r="F94" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G94" s="68">
         <f>25*20</f>
@@ -9128,7 +9418,7 @@
         <v>4</v>
       </c>
       <c r="L94" s="164" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M94" s="111" t="s">
         <v>36</v>
@@ -9143,20 +9433,23 @@
         <v>31</v>
       </c>
       <c r="Q94" s="141" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R94" s="142" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S94" s="75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T94" s="130">
         <f>G94*399</f>
         <v>199500</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="100">
         <v>82</v>
       </c>
@@ -9174,7 +9467,7 @@
         <v>50</v>
       </c>
       <c r="F95" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G95" s="69">
         <f>25*40</f>
@@ -9194,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="L95" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M95" s="20" t="s">
         <v>5</v>
@@ -9209,20 +9502,23 @@
         <v>31</v>
       </c>
       <c r="Q95" s="152" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R95" s="152" t="s">
+        <v>617</v>
+      </c>
+      <c r="S95" s="76" t="s">
         <v>618</v>
-      </c>
-      <c r="S95" s="76" t="s">
-        <v>619</v>
       </c>
       <c r="T95" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="100">
         <v>83</v>
       </c>
@@ -9240,7 +9536,7 @@
         <v>50</v>
       </c>
       <c r="F96" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G96" s="66">
         <f>25*24</f>
@@ -9260,7 +9556,7 @@
         <v>4</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M96" s="20" t="s">
         <v>36</v>
@@ -9275,20 +9571,23 @@
         <v>31</v>
       </c>
       <c r="Q96" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R96" s="135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S96" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T96" s="129">
         <f t="shared" si="3"/>
         <v>236400</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="100">
         <v>84</v>
       </c>
@@ -9306,7 +9605,7 @@
         <v>50</v>
       </c>
       <c r="F97" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G97" s="66">
         <f>25*40</f>
@@ -9326,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M97" s="36" t="s">
         <v>120</v>
@@ -9341,20 +9640,23 @@
         <v>20</v>
       </c>
       <c r="Q97" s="134" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R97" s="135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S97" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T97" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="96">
         <v>85</v>
       </c>
@@ -9372,7 +9674,7 @@
         <v>50</v>
       </c>
       <c r="F98" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G98" s="67">
         <f>25*17</f>
@@ -9392,7 +9694,7 @@
         <v>4</v>
       </c>
       <c r="L98" s="162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M98" s="54" t="s">
         <v>36</v>
@@ -9407,20 +9709,23 @@
         <v>96</v>
       </c>
       <c r="Q98" s="153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R98" s="153" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S98" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T98" s="129">
         <f t="shared" si="3"/>
         <v>167450</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="96">
         <v>85</v>
       </c>
@@ -9438,7 +9743,7 @@
         <v>50</v>
       </c>
       <c r="F99" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G99" s="67">
         <f>25*7</f>
@@ -9458,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="L99" s="162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M99" s="54" t="s">
         <v>36</v>
@@ -9473,20 +9778,23 @@
         <v>96</v>
       </c>
       <c r="Q99" s="153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R99" s="153" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S99" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T99" s="129">
         <f t="shared" si="3"/>
         <v>68950</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="96">
         <v>85</v>
       </c>
@@ -9504,7 +9812,7 @@
         <v>50</v>
       </c>
       <c r="F100" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G100" s="67">
         <f>25*3</f>
@@ -9524,7 +9832,7 @@
         <v>4</v>
       </c>
       <c r="L100" s="162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M100" s="54" t="s">
         <v>36</v>
@@ -9539,20 +9847,23 @@
         <v>96</v>
       </c>
       <c r="Q100" s="153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R100" s="153" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S100" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T100" s="129">
         <f t="shared" si="3"/>
         <v>29550</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="100">
         <v>86</v>
       </c>
@@ -9570,7 +9881,7 @@
         <v>50</v>
       </c>
       <c r="F101" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G101" s="67">
         <f>25*20</f>
@@ -9590,7 +9901,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M101" s="20" t="s">
         <v>24</v>
@@ -9605,20 +9916,23 @@
         <v>25</v>
       </c>
       <c r="Q101" s="134" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R101" s="135" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S101" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T101" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="100">
         <v>87</v>
       </c>
@@ -9636,7 +9950,7 @@
         <v>50</v>
       </c>
       <c r="F102" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G102" s="66">
         <f>25*30</f>
@@ -9656,7 +9970,7 @@
         <v>4</v>
       </c>
       <c r="L102" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M102" s="20" t="s">
         <v>5</v>
@@ -9671,20 +9985,23 @@
         <v>20</v>
       </c>
       <c r="Q102" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R102" s="135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S102" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T102" s="129">
         <f t="shared" si="3"/>
         <v>295500</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="100">
         <v>88</v>
       </c>
@@ -9702,7 +10019,7 @@
         <v>50</v>
       </c>
       <c r="F103" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G103" s="67">
         <f>25*20</f>
@@ -9722,7 +10039,7 @@
         <v>4</v>
       </c>
       <c r="L103" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M103" s="20" t="s">
         <v>24</v>
@@ -9737,20 +10054,23 @@
         <v>14</v>
       </c>
       <c r="Q103" s="143" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R103" s="144" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S103" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T103" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="100">
         <v>89</v>
       </c>
@@ -9768,7 +10088,7 @@
         <v>50</v>
       </c>
       <c r="F104" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G104" s="67">
         <f>25*30</f>
@@ -9788,7 +10108,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M104" s="20" t="s">
         <v>5</v>
@@ -9803,20 +10123,23 @@
         <v>8</v>
       </c>
       <c r="Q104" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R104" s="144" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S104" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T104" s="129">
         <f t="shared" si="3"/>
         <v>295500</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="106">
         <v>90</v>
       </c>
@@ -9834,7 +10157,7 @@
         <v>25</v>
       </c>
       <c r="F105" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G105" s="68">
         <f>25*32</f>
@@ -9854,7 +10177,7 @@
         <v>4</v>
       </c>
       <c r="L105" s="164" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M105" s="111" t="s">
         <v>71</v>
@@ -9869,20 +10192,23 @@
         <v>101</v>
       </c>
       <c r="Q105" s="141" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R105" s="142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S105" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T105" s="130">
         <f>G105*399</f>
         <v>319200</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="100">
         <v>91</v>
       </c>
@@ -9900,7 +10226,7 @@
         <v>50</v>
       </c>
       <c r="F106" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G106" s="66">
         <f>25*20</f>
@@ -9920,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="L106" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M106" s="20" t="s">
         <v>5</v>
@@ -9935,20 +10261,23 @@
         <v>31</v>
       </c>
       <c r="Q106" s="154" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R106" s="154" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S106" s="76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T106" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="106">
         <v>92</v>
       </c>
@@ -9966,7 +10295,7 @@
         <v>25</v>
       </c>
       <c r="F107" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G107" s="68">
         <f>25*56</f>
@@ -9986,7 +10315,7 @@
         <v>4</v>
       </c>
       <c r="L107" s="164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M107" s="111" t="s">
         <v>5</v>
@@ -10001,20 +10330,23 @@
         <v>20</v>
       </c>
       <c r="Q107" s="141" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R107" s="142" t="s">
+        <v>617</v>
+      </c>
+      <c r="S107" s="75" t="s">
         <v>618</v>
-      </c>
-      <c r="S107" s="75" t="s">
-        <v>619</v>
       </c>
       <c r="T107" s="130">
         <f>G107*399</f>
         <v>558600</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="100">
         <v>93</v>
       </c>
@@ -10032,7 +10364,7 @@
         <v>50</v>
       </c>
       <c r="F108" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G108" s="66">
         <f>25*40</f>
@@ -10052,7 +10384,7 @@
         <v>4</v>
       </c>
       <c r="L108" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M108" s="20" t="s">
         <v>5</v>
@@ -10067,20 +10399,23 @@
         <v>20</v>
       </c>
       <c r="Q108" s="140" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R108" s="140" t="s">
+        <v>617</v>
+      </c>
+      <c r="S108" s="76" t="s">
         <v>618</v>
-      </c>
-      <c r="S108" s="76" t="s">
-        <v>619</v>
       </c>
       <c r="T108" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="100">
         <v>94</v>
       </c>
@@ -10098,7 +10433,7 @@
         <v>50</v>
       </c>
       <c r="F109" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G109" s="66">
         <f>25*20</f>
@@ -10118,7 +10453,7 @@
         <v>4</v>
       </c>
       <c r="L109" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M109" s="20" t="s">
         <v>11</v>
@@ -10133,20 +10468,23 @@
         <v>20</v>
       </c>
       <c r="Q109" s="154" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R109" s="154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S109" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T109" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="100">
         <v>95</v>
       </c>
@@ -10164,7 +10502,7 @@
         <v>50</v>
       </c>
       <c r="F110" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G110" s="66">
         <f>25*20</f>
@@ -10184,7 +10522,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M110" s="20" t="s">
         <v>5</v>
@@ -10199,20 +10537,23 @@
         <v>31</v>
       </c>
       <c r="Q110" s="143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R110" s="144" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S110" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T110" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="100">
         <v>96</v>
       </c>
@@ -10230,7 +10571,7 @@
         <v>50</v>
       </c>
       <c r="F111" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G111" s="66">
         <f>25*20</f>
@@ -10250,7 +10591,7 @@
         <v>4</v>
       </c>
       <c r="L111" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M111" s="20" t="s">
         <v>5</v>
@@ -10265,20 +10606,23 @@
         <v>20</v>
       </c>
       <c r="Q111" s="143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R111" s="144" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S111" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T111" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="100">
         <v>97</v>
       </c>
@@ -10296,7 +10640,7 @@
         <v>50</v>
       </c>
       <c r="F112" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G112" s="66">
         <f>25*35</f>
@@ -10316,7 +10660,7 @@
         <v>4</v>
       </c>
       <c r="L112" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M112" s="20" t="s">
         <v>5</v>
@@ -10331,20 +10675,23 @@
         <v>20</v>
       </c>
       <c r="Q112" s="143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R112" s="144" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S112" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T112" s="129">
         <f t="shared" si="3"/>
         <v>344750</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="100">
         <v>98</v>
       </c>
@@ -10362,7 +10709,7 @@
         <v>50</v>
       </c>
       <c r="F113" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G113" s="66">
         <f>25*40</f>
@@ -10382,7 +10729,7 @@
         <v>4</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M113" s="20" t="s">
         <v>5</v>
@@ -10397,20 +10744,23 @@
         <v>8</v>
       </c>
       <c r="Q113" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R113" s="144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S113" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T113" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="100">
         <v>99</v>
       </c>
@@ -10428,7 +10778,7 @@
         <v>50</v>
       </c>
       <c r="F114" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G114" s="66">
         <f>25*20</f>
@@ -10448,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M114" s="20" t="s">
         <v>389</v>
@@ -10463,20 +10813,23 @@
         <v>8</v>
       </c>
       <c r="Q114" s="134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R114" s="135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S114" s="78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T114" s="131">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="100">
         <v>100</v>
       </c>
@@ -10494,7 +10847,7 @@
         <v>50</v>
       </c>
       <c r="F115" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G115" s="66">
         <f>25*40</f>
@@ -10514,7 +10867,7 @@
         <v>4</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M115" s="20" t="s">
         <v>18</v>
@@ -10529,20 +10882,23 @@
         <v>20</v>
       </c>
       <c r="Q115" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R115" s="135" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S115" s="78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T115" s="131">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="100">
         <v>101</v>
       </c>
@@ -10560,7 +10916,7 @@
         <v>50</v>
       </c>
       <c r="F116" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G116" s="66">
         <f>25*33</f>
@@ -10580,7 +10936,7 @@
         <v>4</v>
       </c>
       <c r="L116" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M116" s="20" t="s">
         <v>5</v>
@@ -10595,20 +10951,23 @@
         <v>20</v>
       </c>
       <c r="Q116" s="134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R116" s="135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S116" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T116" s="129">
         <f t="shared" si="3"/>
         <v>325050</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="123">
         <v>102</v>
       </c>
@@ -10626,7 +10985,7 @@
         <v>50</v>
       </c>
       <c r="F117" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G117" s="67">
         <f>25*40</f>
@@ -10646,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M117" s="20" t="s">
         <v>115</v>
@@ -10661,20 +11020,23 @@
         <v>8</v>
       </c>
       <c r="Q117" s="143" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R117" s="144" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S117" s="74" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T117" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="100">
         <v>103</v>
       </c>
@@ -10692,7 +11054,7 @@
         <v>50</v>
       </c>
       <c r="F118" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G118" s="65">
         <f>25*20</f>
@@ -10712,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M118" s="20" t="s">
         <v>18</v>
@@ -10727,20 +11089,23 @@
         <v>8</v>
       </c>
       <c r="Q118" s="134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R118" s="135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S118" s="78" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T118" s="131">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="106">
         <v>104</v>
       </c>
@@ -10758,7 +11123,7 @@
         <v>25</v>
       </c>
       <c r="F119" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G119" s="68">
         <f>25*32</f>
@@ -10778,7 +11143,7 @@
         <v>4</v>
       </c>
       <c r="L119" s="164" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M119" s="111" t="s">
         <v>71</v>
@@ -10793,20 +11158,23 @@
         <v>73</v>
       </c>
       <c r="Q119" s="141" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R119" s="142" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S119" s="75" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T119" s="130">
         <f>G119*399</f>
         <v>319200</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="100">
         <v>105</v>
       </c>
@@ -10824,7 +11192,7 @@
         <v>50</v>
       </c>
       <c r="F120" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G120" s="66">
         <f>25*24</f>
@@ -10844,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M120" s="20" t="s">
         <v>71</v>
@@ -10859,20 +11227,23 @@
         <v>96</v>
       </c>
       <c r="Q120" s="134" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R120" s="135" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S120" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T120" s="129">
         <f t="shared" si="3"/>
         <v>236400</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="100">
         <v>106</v>
       </c>
@@ -10890,7 +11261,7 @@
         <v>50</v>
       </c>
       <c r="F121" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G121" s="66">
         <f>25*56</f>
@@ -10910,7 +11281,7 @@
         <v>4</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M121" s="20" t="s">
         <v>5</v>
@@ -10925,20 +11296,23 @@
         <v>20</v>
       </c>
       <c r="Q121" s="134" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R121" s="135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S121" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T121" s="129">
         <f t="shared" si="3"/>
         <v>551600</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="100">
         <v>107</v>
       </c>
@@ -10956,7 +11330,7 @@
         <v>50</v>
       </c>
       <c r="F122" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G122" s="66">
         <f>25*40</f>
@@ -10976,7 +11350,7 @@
         <v>4</v>
       </c>
       <c r="L122" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M122" s="20" t="s">
         <v>5</v>
@@ -10991,20 +11365,23 @@
         <v>96</v>
       </c>
       <c r="Q122" s="140" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R122" s="140" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S122" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T122" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="100">
         <v>108</v>
       </c>
@@ -11022,7 +11399,7 @@
         <v>50</v>
       </c>
       <c r="F123" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G123" s="66">
         <f>25*20</f>
@@ -11042,7 +11419,7 @@
         <v>4</v>
       </c>
       <c r="L123" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M123" s="20" t="s">
         <v>24</v>
@@ -11057,20 +11434,23 @@
         <v>25</v>
       </c>
       <c r="Q123" s="134" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R123" s="135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S123" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T123" s="129">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="96">
         <v>109</v>
       </c>
@@ -11088,7 +11468,7 @@
         <v>50</v>
       </c>
       <c r="F124" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G124" s="67">
         <f>25*17</f>
@@ -11108,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="L124" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M124" s="54" t="s">
         <v>36</v>
@@ -11123,20 +11503,23 @@
         <v>20</v>
       </c>
       <c r="Q124" s="136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R124" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S124" s="77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T124" s="129">
         <f t="shared" si="3"/>
         <v>167450</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="96">
         <v>109</v>
       </c>
@@ -11154,7 +11537,7 @@
         <v>50</v>
       </c>
       <c r="F125" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G125" s="67">
         <f>25*5</f>
@@ -11174,7 +11557,7 @@
         <v>4</v>
       </c>
       <c r="L125" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M125" s="54" t="s">
         <v>36</v>
@@ -11189,20 +11572,23 @@
         <v>20</v>
       </c>
       <c r="Q125" s="136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R125" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S125" s="77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T125" s="129">
         <f t="shared" si="3"/>
         <v>49250</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="96">
         <v>110</v>
       </c>
@@ -11220,7 +11606,7 @@
         <v>50</v>
       </c>
       <c r="F126" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G126" s="67">
         <f>25*16</f>
@@ -11240,7 +11626,7 @@
         <v>4</v>
       </c>
       <c r="L126" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M126" s="54" t="s">
         <v>36</v>
@@ -11255,20 +11641,23 @@
         <v>20</v>
       </c>
       <c r="Q126" s="136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R126" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S126" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T126" s="129">
         <f t="shared" si="3"/>
         <v>157600</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="96">
         <v>110</v>
       </c>
@@ -11286,7 +11675,7 @@
         <v>50</v>
       </c>
       <c r="F127" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G127" s="67">
         <f>25*6</f>
@@ -11306,7 +11695,7 @@
         <v>4</v>
       </c>
       <c r="L127" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M127" s="54" t="s">
         <v>36</v>
@@ -11321,20 +11710,23 @@
         <v>20</v>
       </c>
       <c r="Q127" s="136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R127" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S127" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T127" s="129">
         <f t="shared" si="3"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="96">
         <v>110</v>
       </c>
@@ -11352,7 +11744,7 @@
         <v>50</v>
       </c>
       <c r="F128" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G128" s="67">
         <f>25*2</f>
@@ -11372,7 +11764,7 @@
         <v>4</v>
       </c>
       <c r="L128" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M128" s="54" t="s">
         <v>36</v>
@@ -11387,20 +11779,23 @@
         <v>20</v>
       </c>
       <c r="Q128" s="136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R128" s="137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S128" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T128" s="129">
         <f t="shared" si="3"/>
         <v>19700</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="100">
         <v>111</v>
       </c>
@@ -11418,7 +11813,7 @@
         <v>50</v>
       </c>
       <c r="F129" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G129" s="67">
         <f>25*34</f>
@@ -11438,7 +11833,7 @@
         <v>4</v>
       </c>
       <c r="L129" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M129" s="39" t="s">
         <v>36</v>
@@ -11453,20 +11848,23 @@
         <v>20</v>
       </c>
       <c r="Q129" s="155" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R129" s="156" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S129" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T129" s="129">
         <f t="shared" si="3"/>
         <v>334900</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="100">
         <v>112</v>
       </c>
@@ -11484,7 +11882,7 @@
         <v>50</v>
       </c>
       <c r="F130" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G130" s="65">
         <f>25*33</f>
@@ -11504,7 +11902,7 @@
         <v>4</v>
       </c>
       <c r="L130" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M130" s="20" t="s">
         <v>5</v>
@@ -11519,20 +11917,23 @@
         <v>20</v>
       </c>
       <c r="Q130" s="134" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R130" s="135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S130" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T130" s="129">
         <f t="shared" si="3"/>
         <v>325050</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="100">
         <v>113</v>
       </c>
@@ -11550,7 +11951,7 @@
         <v>50</v>
       </c>
       <c r="F131" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G131" s="66">
         <f>25*40</f>
@@ -11570,7 +11971,7 @@
         <v>4</v>
       </c>
       <c r="L131" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M131" s="20" t="s">
         <v>36</v>
@@ -11585,20 +11986,23 @@
         <v>96</v>
       </c>
       <c r="Q131" s="134" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R131" s="135" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S131" s="76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T131" s="129">
         <f t="shared" si="3"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="100">
         <v>114</v>
       </c>
@@ -11616,7 +12020,7 @@
         <v>50</v>
       </c>
       <c r="F132" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G132" s="66">
         <f>25*20</f>
@@ -11636,7 +12040,7 @@
         <v>4</v>
       </c>
       <c r="L132" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M132" s="20" t="s">
         <v>36</v>
@@ -11651,20 +12055,23 @@
         <v>81</v>
       </c>
       <c r="Q132" s="134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R132" s="135" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S132" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T132" s="129">
         <f t="shared" ref="T132:T147" si="5">G132*394</f>
         <v>197000</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="100">
         <v>115</v>
       </c>
@@ -11682,7 +12089,7 @@
         <v>50</v>
       </c>
       <c r="F133" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G133" s="66">
         <f>25*20</f>
@@ -11702,7 +12109,7 @@
         <v>4</v>
       </c>
       <c r="L133" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M133" s="20" t="s">
         <v>11</v>
@@ -11717,20 +12124,23 @@
         <v>20</v>
       </c>
       <c r="Q133" s="143" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R133" s="144" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S133" s="76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="T133" s="129">
         <f t="shared" si="5"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="100">
         <v>116</v>
       </c>
@@ -11748,7 +12158,7 @@
         <v>50</v>
       </c>
       <c r="F134" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G134" s="66">
         <f>25*80</f>
@@ -11768,7 +12178,7 @@
         <v>4</v>
       </c>
       <c r="L134" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M134" s="20" t="s">
         <v>36</v>
@@ -11783,20 +12193,23 @@
         <v>8</v>
       </c>
       <c r="Q134" s="143" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R134" s="144" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S134" s="76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T134" s="129">
         <f t="shared" si="5"/>
         <v>788000</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="100">
         <v>117</v>
       </c>
@@ -11814,7 +12227,7 @@
         <v>50</v>
       </c>
       <c r="F135" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G135" s="66">
         <f>25*20</f>
@@ -11834,7 +12247,7 @@
         <v>4</v>
       </c>
       <c r="L135" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M135" s="20" t="s">
         <v>36</v>
@@ -11849,20 +12262,23 @@
         <v>20</v>
       </c>
       <c r="Q135" s="140" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R135" s="140" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S135" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T135" s="129">
         <f t="shared" si="5"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="100">
         <v>118</v>
       </c>
@@ -11880,7 +12296,7 @@
         <v>50</v>
       </c>
       <c r="F136" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G136" s="66">
         <f>25*20</f>
@@ -11900,7 +12316,7 @@
         <v>4</v>
       </c>
       <c r="L136" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M136" s="20" t="s">
         <v>389</v>
@@ -11915,20 +12331,23 @@
         <v>8</v>
       </c>
       <c r="Q136" s="143" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R136" s="144" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S136" s="76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T136" s="129">
         <f t="shared" si="5"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="100">
         <v>119</v>
       </c>
@@ -11946,7 +12365,7 @@
         <v>50</v>
       </c>
       <c r="F137" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G137" s="67">
         <f>25*40</f>
@@ -11966,7 +12385,7 @@
         <v>4</v>
       </c>
       <c r="L137" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M137" s="20" t="s">
         <v>36</v>
@@ -11981,20 +12400,23 @@
         <v>101</v>
       </c>
       <c r="Q137" s="154" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R137" s="144" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S137" s="76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T137" s="129">
         <f t="shared" si="5"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="100">
         <v>120</v>
       </c>
@@ -12012,7 +12434,7 @@
         <v>50</v>
       </c>
       <c r="F138" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G138" s="67">
         <f>25*20</f>
@@ -12032,7 +12454,7 @@
         <v>4</v>
       </c>
       <c r="L138" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M138" s="20" t="s">
         <v>5</v>
@@ -12047,20 +12469,23 @@
         <v>77</v>
       </c>
       <c r="Q138" s="143" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R138" s="144" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S138" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T138" s="129">
         <f t="shared" si="5"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="100">
         <v>121</v>
       </c>
@@ -12078,7 +12503,7 @@
         <v>50</v>
       </c>
       <c r="F139" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G139" s="66">
         <f>25*78</f>
@@ -12098,7 +12523,7 @@
         <v>4</v>
       </c>
       <c r="L139" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M139" s="20" t="s">
         <v>5</v>
@@ -12113,20 +12538,23 @@
         <v>31</v>
       </c>
       <c r="Q139" s="134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R139" s="135" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S139" s="76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T139" s="129">
         <f t="shared" si="5"/>
         <v>768300</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="100">
         <v>122</v>
       </c>
@@ -12144,7 +12572,7 @@
         <v>50</v>
       </c>
       <c r="F140" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G140" s="66">
         <f>25*42</f>
@@ -12164,7 +12592,7 @@
         <v>4</v>
       </c>
       <c r="L140" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M140" s="20" t="s">
         <v>5</v>
@@ -12179,20 +12607,23 @@
         <v>31</v>
       </c>
       <c r="Q140" s="134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R140" s="135" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S140" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="T140" s="129">
         <f t="shared" si="5"/>
         <v>413700</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="100">
         <v>123</v>
       </c>
@@ -12210,7 +12641,7 @@
         <v>50</v>
       </c>
       <c r="F141" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G141" s="66">
         <f>25*52</f>
@@ -12230,7 +12661,7 @@
         <v>4</v>
       </c>
       <c r="L141" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M141" s="20" t="s">
         <v>36</v>
@@ -12245,20 +12676,23 @@
         <v>73</v>
       </c>
       <c r="Q141" s="134" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R141" s="135" t="s">
+        <v>610</v>
+      </c>
+      <c r="S141" s="76" t="s">
         <v>611</v>
-      </c>
-      <c r="S141" s="76" t="s">
-        <v>612</v>
       </c>
       <c r="T141" s="129">
         <f t="shared" si="5"/>
         <v>512200</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="96">
         <v>124</v>
       </c>
@@ -12276,7 +12710,7 @@
         <v>50</v>
       </c>
       <c r="F142" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G142" s="67">
         <f>25*55</f>
@@ -12296,7 +12730,7 @@
         <v>4</v>
       </c>
       <c r="L142" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M142" s="54" t="s">
         <v>5</v>
@@ -12311,20 +12745,23 @@
         <v>20</v>
       </c>
       <c r="Q142" s="157" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R142" s="158" t="s">
+        <v>627</v>
+      </c>
+      <c r="S142" s="77" t="s">
         <v>628</v>
-      </c>
-      <c r="S142" s="77" t="s">
-        <v>629</v>
       </c>
       <c r="T142" s="129">
         <f t="shared" si="5"/>
         <v>541750</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="96">
         <v>124</v>
       </c>
@@ -12342,7 +12779,7 @@
         <v>25</v>
       </c>
       <c r="F143" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G143" s="67">
         <f>25*8</f>
@@ -12362,7 +12799,7 @@
         <v>4</v>
       </c>
       <c r="L143" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M143" s="54" t="s">
         <v>5</v>
@@ -12377,20 +12814,23 @@
         <v>20</v>
       </c>
       <c r="Q143" s="157" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R143" s="158" t="s">
+        <v>627</v>
+      </c>
+      <c r="S143" s="77" t="s">
         <v>628</v>
-      </c>
-      <c r="S143" s="77" t="s">
-        <v>629</v>
       </c>
       <c r="T143" s="129">
         <f>G143*399</f>
         <v>79800</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="106">
         <v>125</v>
       </c>
@@ -12408,7 +12848,7 @@
         <v>25</v>
       </c>
       <c r="F144" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G144" s="71">
         <f>25*40</f>
@@ -12428,7 +12868,7 @@
         <v>4</v>
       </c>
       <c r="L144" s="164" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M144" s="111" t="s">
         <v>5</v>
@@ -12443,20 +12883,23 @@
         <v>96</v>
       </c>
       <c r="Q144" s="141" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R144" s="142" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S144" s="75" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T144" s="130">
         <f t="shared" si="5"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="100">
         <v>126</v>
       </c>
@@ -12474,7 +12917,7 @@
         <v>50</v>
       </c>
       <c r="F145" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G145" s="66">
         <f>25*20</f>
@@ -12494,7 +12937,7 @@
         <v>4</v>
       </c>
       <c r="L145" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M145" s="20" t="s">
         <v>5</v>
@@ -12509,20 +12952,23 @@
         <v>14</v>
       </c>
       <c r="Q145" s="134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R145" s="135" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S145" s="72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T145" s="129">
         <f t="shared" si="5"/>
         <v>197000</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="100">
         <v>127</v>
       </c>
@@ -12540,7 +12986,7 @@
         <v>50</v>
       </c>
       <c r="F146" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G146" s="66">
         <f>25*60</f>
@@ -12560,7 +13006,7 @@
         <v>4</v>
       </c>
       <c r="L146" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M146" s="20" t="s">
         <v>5</v>
@@ -12575,20 +13021,23 @@
         <v>8</v>
       </c>
       <c r="Q146" s="134" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R146" s="135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S146" s="74" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T146" s="129">
         <f t="shared" si="5"/>
         <v>591000</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="96">
         <v>128</v>
       </c>
@@ -12606,7 +13055,7 @@
         <v>50</v>
       </c>
       <c r="F147" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G147" s="67">
         <f>25*40</f>
@@ -12626,7 +13075,7 @@
         <v>4</v>
       </c>
       <c r="L147" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M147" s="54" t="s">
         <v>5</v>
@@ -12641,20 +13090,23 @@
         <v>8</v>
       </c>
       <c r="Q147" s="146" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R147" s="136" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S147" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T147" s="129">
         <f t="shared" si="5"/>
         <v>394000</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="96">
         <v>128</v>
       </c>
@@ -12672,7 +13124,7 @@
         <v>25</v>
       </c>
       <c r="F148" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G148" s="67">
         <f>25*12</f>
@@ -12692,7 +13144,7 @@
         <v>4</v>
       </c>
       <c r="L148" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M148" s="54" t="s">
         <v>5</v>
@@ -12707,20 +13159,23 @@
         <v>8</v>
       </c>
       <c r="Q148" s="146" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R148" s="136" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S148" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T148" s="131">
         <f>G148*399</f>
         <v>119700</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="100">
         <v>129</v>
       </c>
@@ -12738,7 +13193,7 @@
         <v>50</v>
       </c>
       <c r="F149" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G149" s="66">
         <f>25*20</f>
@@ -12758,7 +13213,7 @@
         <v>4</v>
       </c>
       <c r="L149" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M149" s="20" t="s">
         <v>65</v>
@@ -12773,20 +13228,23 @@
         <v>67</v>
       </c>
       <c r="Q149" s="134" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R149" s="135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S149" s="79" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T149" s="131">
         <f t="shared" ref="T149:T151" si="7">G149*399</f>
         <v>199500</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="106">
         <v>130</v>
       </c>
@@ -12804,7 +13262,7 @@
         <v>25</v>
       </c>
       <c r="F150" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G150" s="71">
         <f>25*20</f>
@@ -12824,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="L150" s="164" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M150" s="111" t="s">
         <v>65</v>
@@ -12839,20 +13297,23 @@
         <v>110</v>
       </c>
       <c r="Q150" s="159" t="s">
+        <v>633</v>
+      </c>
+      <c r="R150" s="160" t="s">
         <v>634</v>
       </c>
-      <c r="R150" s="160" t="s">
+      <c r="S150" s="75" t="s">
         <v>635</v>
-      </c>
-      <c r="S150" s="75" t="s">
-        <v>636</v>
       </c>
       <c r="T150" s="130">
         <f t="shared" si="7"/>
         <v>199500</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="106">
         <v>131</v>
       </c>
@@ -12870,7 +13331,7 @@
         <v>25</v>
       </c>
       <c r="F151" s="90">
-        <v>10063099</v>
+        <v>10063099012</v>
       </c>
       <c r="G151" s="71">
         <f>25*40</f>
@@ -12890,7 +13351,7 @@
         <v>4</v>
       </c>
       <c r="L151" s="164" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M151" s="111" t="s">
         <v>65</v>
@@ -12905,17 +13366,20 @@
         <v>67</v>
       </c>
       <c r="Q151" s="141" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R151" s="142" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S151" s="75" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T151" s="130">
         <f t="shared" si="7"/>
         <v>399000</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12926,1011 +13390,1180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-    <col min="6" max="6" width="36.5" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="33.125" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="43.5" customWidth="1"/>
-    <col min="17" max="17" width="20.375" customWidth="1"/>
-    <col min="18" max="18" width="30.25" customWidth="1"/>
-    <col min="19" max="19" width="32.375" customWidth="1"/>
-    <col min="20" max="20" width="26.125" customWidth="1"/>
-    <col min="21" max="21" width="25.875" customWidth="1"/>
-    <col min="22" max="22" width="19.625" customWidth="1"/>
-    <col min="23" max="23" width="38" customWidth="1"/>
-    <col min="24" max="24" width="32.125" customWidth="1"/>
-    <col min="25" max="25" width="30.5" customWidth="1"/>
-    <col min="26" max="26" width="17.125" customWidth="1"/>
-    <col min="27" max="27" width="22" customWidth="1"/>
-    <col min="28" max="28" width="24.25" customWidth="1"/>
-    <col min="29" max="29" width="24.125" customWidth="1"/>
-    <col min="30" max="30" width="43.125" customWidth="1"/>
-    <col min="31" max="31" width="31.875" customWidth="1"/>
-    <col min="32" max="32" width="18" customWidth="1"/>
-    <col min="33" max="33" width="31" customWidth="1"/>
-    <col min="34" max="34" width="20.75" customWidth="1"/>
-    <col min="35" max="35" width="29.75" customWidth="1"/>
-    <col min="36" max="36" width="25.875" customWidth="1"/>
-    <col min="37" max="37" width="33.5" customWidth="1"/>
-    <col min="38" max="38" width="29.25" customWidth="1"/>
-    <col min="39" max="39" width="23.875" customWidth="1"/>
-    <col min="40" max="40" width="26.125" customWidth="1"/>
-    <col min="41" max="41" width="33.125" customWidth="1"/>
-    <col min="42" max="42" width="19.5" customWidth="1"/>
-    <col min="43" max="43" width="28" customWidth="1"/>
-    <col min="44" max="44" width="25" customWidth="1"/>
-    <col min="45" max="45" width="19.625" customWidth="1"/>
-    <col min="46" max="46" width="22.125" customWidth="1"/>
-    <col min="47" max="47" width="48.5" customWidth="1"/>
-    <col min="48" max="48" width="26.875" customWidth="1"/>
-    <col min="49" max="49" width="23" customWidth="1"/>
-    <col min="50" max="50" width="25.125" customWidth="1"/>
-    <col min="51" max="51" width="28.75" customWidth="1"/>
-    <col min="52" max="52" width="27.5" customWidth="1"/>
-    <col min="53" max="53" width="22.375" customWidth="1"/>
-    <col min="54" max="54" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.875" customWidth="1"/>
-    <col min="56" max="56" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.875" customWidth="1"/>
-    <col min="58" max="58" width="22" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.375" customWidth="1"/>
-    <col min="60" max="60" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.25" customWidth="1"/>
-    <col min="62" max="62" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.25" customWidth="1"/>
-    <col min="64" max="64" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.25" customWidth="1"/>
-    <col min="66" max="66" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.25" customWidth="1"/>
-    <col min="68" max="68" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.25" customWidth="1"/>
-    <col min="70" max="70" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.25" customWidth="1"/>
-    <col min="72" max="72" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.25" customWidth="1"/>
-    <col min="74" max="74" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.25" customWidth="1"/>
-    <col min="76" max="76" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="77" max="81" width="21.25" customWidth="1"/>
-    <col min="82" max="82" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="83" max="91" width="21.25" customWidth="1"/>
-    <col min="92" max="105" width="19.375" customWidth="1"/>
-    <col min="106" max="107" width="13.875" customWidth="1"/>
-    <col min="108" max="109" width="18.375" customWidth="1"/>
-    <col min="110" max="112" width="21.875" customWidth="1"/>
-    <col min="113" max="118" width="19.375" customWidth="1"/>
-    <col min="119" max="119" width="18.75" customWidth="1"/>
-    <col min="120" max="122" width="18.5" customWidth="1"/>
-    <col min="123" max="123" width="18.375" customWidth="1"/>
-    <col min="124" max="124" width="18.5" customWidth="1"/>
-    <col min="125" max="125" width="20.375" customWidth="1"/>
-    <col min="126" max="127" width="19.625" customWidth="1"/>
-    <col min="128" max="129" width="20.375" customWidth="1"/>
-    <col min="130" max="132" width="20.125" customWidth="1"/>
-    <col min="133" max="133" width="13.375" customWidth="1"/>
-    <col min="134" max="134" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="151" max="153" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="158" max="159" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="26" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="26" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="26" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="26" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="26" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="26" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="26" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="26" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="166" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="20" width="38" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1"/>
+    <col min="27" max="27" width="43.140625" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" customWidth="1"/>
+    <col min="29" max="29" width="18" customWidth="1"/>
+    <col min="30" max="30" width="31" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" customWidth="1"/>
+    <col min="32" max="32" width="29.7109375" customWidth="1"/>
+    <col min="33" max="33" width="25.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.42578125" customWidth="1"/>
+    <col min="35" max="35" width="29.28515625" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" customWidth="1"/>
+    <col min="37" max="37" width="26.140625" customWidth="1"/>
+    <col min="38" max="38" width="33.140625" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" customWidth="1"/>
+    <col min="40" max="40" width="28" customWidth="1"/>
+    <col min="41" max="41" width="25" customWidth="1"/>
+    <col min="42" max="42" width="19.5703125" customWidth="1"/>
+    <col min="43" max="43" width="22.140625" customWidth="1"/>
+    <col min="44" max="44" width="48.42578125" customWidth="1"/>
+    <col min="45" max="45" width="26.85546875" customWidth="1"/>
+    <col min="46" max="46" width="23" customWidth="1"/>
+    <col min="47" max="47" width="25.140625" customWidth="1"/>
+    <col min="48" max="48" width="28.7109375" customWidth="1"/>
+    <col min="49" max="49" width="27.42578125" customWidth="1"/>
+    <col min="50" max="50" width="22.42578125" customWidth="1"/>
+    <col min="51" max="51" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.85546875" customWidth="1"/>
+    <col min="53" max="53" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.85546875" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" customWidth="1"/>
+    <col min="57" max="57" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.28515625" customWidth="1"/>
+    <col min="59" max="59" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.28515625" customWidth="1"/>
+    <col min="61" max="61" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.28515625" customWidth="1"/>
+    <col min="63" max="63" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.28515625" customWidth="1"/>
+    <col min="65" max="65" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.28515625" customWidth="1"/>
+    <col min="67" max="67" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21.28515625" customWidth="1"/>
+    <col min="69" max="69" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="21.28515625" customWidth="1"/>
+    <col min="71" max="71" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.28515625" customWidth="1"/>
+    <col min="73" max="73" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="78" width="21.28515625" customWidth="1"/>
+    <col min="79" max="79" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="21.28515625" customWidth="1"/>
+    <col min="89" max="102" width="19.42578125" customWidth="1"/>
+    <col min="103" max="104" width="13.85546875" customWidth="1"/>
+    <col min="105" max="106" width="18.42578125" customWidth="1"/>
+    <col min="107" max="109" width="21.85546875" customWidth="1"/>
+    <col min="110" max="115" width="19.42578125" customWidth="1"/>
+    <col min="116" max="116" width="18.7109375" customWidth="1"/>
+    <col min="117" max="121" width="18.42578125" customWidth="1"/>
+    <col min="122" max="122" width="20.42578125" customWidth="1"/>
+    <col min="123" max="124" width="19.5703125" customWidth="1"/>
+    <col min="125" max="126" width="20.42578125" customWidth="1"/>
+    <col min="127" max="129" width="20.140625" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" customWidth="1"/>
+    <col min="131" max="131" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="148" max="150" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="156" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="180" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="26" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="26" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="26" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="26" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="26" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="26" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="26" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="26" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="26" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="26" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="26" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="26" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="26" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="26" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="26" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="222" max="223" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="26" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="26" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="26" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="26" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="26" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="26" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="25" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="250" max="251" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="25" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="27" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="27" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="27" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="26" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="26" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="26" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="26" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="219" max="220" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="26" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="26" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="26" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="26" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="26" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="26" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="25" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="247" max="248" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="25" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="25" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="27" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="27" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="27" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>561</v>
       </c>
       <c r="B1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="166" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="167">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="167">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="167">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="167">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="167">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="167">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="167">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="167">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="167">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="167">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="167">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="167">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="167">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="167">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="167">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="167">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="167">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="167">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="167">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="167">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="167">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="167">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="167">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>314</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="167">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="167">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="167">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="167">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="167">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="167">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="167">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="167">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="167">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="167">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="167">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="167">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="167">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="167">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="167">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="167">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="167">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="167">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="167">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="167">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="167">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="167">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="167">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="167">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="167">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="167">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="167">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="167">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="167">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="167">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="167">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="167">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C58" s="167">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
   </sheetData>
